--- a/biology/Botanique/Belle_épine_du_Mas/Belle_épine_du_Mas.xlsx
+++ b/biology/Botanique/Belle_épine_du_Mas/Belle_épine_du_Mas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
+          <t>Belle_épine_du_Mas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Belle épine du Mas est une variété de poires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
+          <t>Belle_épine_du_Mas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>"Belle Épine du Mas"
 "Du Mas de Rochefort"
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
+          <t>Belle_épine_du_Mas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre viendrait d'un semis de hasard découvert vers 1803, dans la forêt de Vauguyon (Haute-Vienne). Pour d’autres pomologues, son nom viendrait d’un village, Le Mas, voisin de la forêt de Rochechouart.
 </t>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
+          <t>Belle_épine_du_Mas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,20 +603,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De vigueur moyenne avec de mauvaises affinités sur cognassier, le bourrelet de greffe est volumineux et les décollements sont fréquents. Le port de l'arbre est semi-érigé. Il peut se greffer sur franc, pour les formes plus importantes que le fuseau.
-Époque de floraison
-La floraison se montre moyennement précoce.
-Pollinisateurs recommandés
-"Beurré Clairgeau"
-"Beurré Hardy"
-"Passe-crassane"
-"Bon-Chrétien Williams"
-Mise à fruit
-La fructification se déroule de manière précoce et régulière.
-Productivité
-Très satisfaisante, la production caractérise l'espèce.
 </t>
         </is>
       </c>
@@ -611,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
+          <t>Belle_épine_du_Mas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,10 +633,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Époque de floraison</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison se montre moyennement précoce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Belle_épine_du_Mas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pollinisateurs recommandés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>"Beurré Clairgeau"
+"Beurré Hardy"
+"Passe-crassane"
+"Bon-Chrétien Williams"</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Belle_épine_du_Mas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mise à fruit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fructification se déroule de manière précoce et régulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Belle_épine_du_Mas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très satisfaisante, la production caractérise l'espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Belle_épine_du_Mas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Forme et calibre
 Moyen calibre, correspondant aux normes souhaitées par les restaurateurs, d'où son surnom. Forme piriforme régulière, avec un pédoncule long et ligneux, légèrement courbé, implanté dans une cuvette peu profonde.
@@ -652,31 +811,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Belle_épine_du_Mas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Appréciations générales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette poire est très sensible à la tavelure sur  les feuilles et sur les fruits et légèrement au pseudomonas, sur feuilles et boutons floraux. 
@@ -687,31 +848,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Belle_%C3%A9pine_du_Mas</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Belle_épine_du_Mas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_%C3%A9pine_du_Mas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est dans un sol léger que les fruits acquièrent le maximum de qualité gustative.
 En année de forte production, l'arboriculteur éclaircit pour tenter d'obtenir des fruits plus gros.
